--- a/Problems 2.xlsx
+++ b/Problems 2.xlsx
@@ -71,9 +71,6 @@
     <t>Составьте диаграмму прецедентов для своего проекта. Дополните ею документацию.</t>
   </si>
   <si>
-    <t>Задание 1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Например, Shape - </t>
     </r>
@@ -91,13 +88,16 @@
     </r>
   </si>
   <si>
-    <t>Задание 2</t>
-  </si>
-  <si>
-    <t>Задание 4</t>
-  </si>
-  <si>
-    <t>Задание 5</t>
+    <t>context Водитель inv:</t>
+  </si>
+  <si>
+    <t>self.возраст &gt; 18 and self.автомобиль.возраст &lt; 30</t>
+  </si>
+  <si>
+    <t>self.Права.Категория == self.Автомобиль.Категория -&gt; collect</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------------------------------&gt;</t>
   </si>
 </sst>
 </file>
@@ -151,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -177,15 +178,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>32387</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41912</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>233670</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243195</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -209,7 +210,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13443587" y="47626"/>
+          <a:off x="651512" y="619126"/>
           <a:ext cx="4468483" cy="1790699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -221,16 +222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106863</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -253,7 +254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029951" y="2352675"/>
+          <a:off x="638176" y="3848100"/>
           <a:ext cx="4629150" cy="1564188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -265,16 +266,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31471</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>554229</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>96247</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,8 +292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13411200" y="4191000"/>
-          <a:ext cx="12746229" cy="7144747"/>
+          <a:off x="641071" y="6656878"/>
+          <a:ext cx="7636153" cy="4280355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -303,16 +304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>523567</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323544</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>393288</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8910</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -335,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20030767" y="10144125"/>
-          <a:ext cx="479321" cy="742948"/>
+          <a:off x="4590744" y="10287000"/>
+          <a:ext cx="294966" cy="457197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -347,16 +348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>65947</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>173792</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>7713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="8257447"/>
-          <a:ext cx="4895850" cy="2203345"/>
+          <a:off x="542924" y="11486422"/>
+          <a:ext cx="7934325" cy="3570791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -391,16 +392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>173597</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>164072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276091</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,8 +424,227 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="11222597"/>
-          <a:ext cx="4886191" cy="1912377"/>
+          <a:off x="600075" y="15213572"/>
+          <a:ext cx="7724775" cy="3023353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272911</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="19354800"/>
+          <a:ext cx="6149836" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>378882</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>67488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="46805849"/>
+          <a:ext cx="7094007" cy="4315639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>133375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="37861874"/>
+          <a:ext cx="12896850" cy="7229501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620750" y="2486024"/>
+          <a:ext cx="11601450" cy="7000875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>26042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3307" t="1709" r="2615" b="3382"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="30098999"/>
+          <a:ext cx="12306300" cy="7265043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="V260" sqref="V260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,130 +968,152 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="R7" s="2"/>
       <c r="U7" s="3"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U23" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="70" spans="11:24" x14ac:dyDescent="0.25">
+      <c r="X70" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" s="2" t="s">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
